--- a/DatosViajeros.xlsx
+++ b/DatosViajeros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DatosViajeros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB6C3D9-2435-496B-BC8C-DA09187CBA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477250C2-799C-4E27-84CA-EB1BDEDD5E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{5DF11FD6-0A61-4C2B-9CEC-54DEE1359997}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5DF11FD6-0A61-4C2B-9CEC-54DEE1359997}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>tc={13CFBEF0-34DE-4488-8354-4E47D0E995E3}</author>
   </authors>
   <commentList>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{13CFBEF0-34DE-4488-8354-4E47D0E995E3}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{13CFBEF0-34DE-4488-8354-4E47D0E995E3}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="259">
   <si>
     <t>Nombre</t>
   </si>
@@ -71,15 +71,9 @@
     <t>Tipo de documento</t>
   </si>
   <si>
-    <t>Número de documento</t>
-  </si>
-  <si>
     <t>Teléfono</t>
   </si>
   <si>
-    <t>Correo electrónico</t>
-  </si>
-  <si>
     <t>Dirección</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t>Código postal</t>
   </si>
   <si>
-    <t>País</t>
-  </si>
-  <si>
     <t>Parentesco</t>
   </si>
   <si>
@@ -146,9 +137,6 @@
     <t>TI</t>
   </si>
   <si>
-    <t>Yerno/Nuera</t>
-  </si>
-  <si>
     <t>YN</t>
   </si>
   <si>
@@ -624,6 +612,225 @@
   </si>
   <si>
     <t>ESP</t>
+  </si>
+  <si>
+    <t>Número del Documento</t>
+  </si>
+  <si>
+    <t>Soporte del Documento(solo DNI o NIF)</t>
+  </si>
+  <si>
+    <t>Código del Municipio(Solo España)</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>López</t>
+  </si>
+  <si>
+    <t>García</t>
+  </si>
+  <si>
+    <t>DNI</t>
+  </si>
+  <si>
+    <t>11211211B</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Alvarez</t>
+  </si>
+  <si>
+    <t>Ramírez</t>
+  </si>
+  <si>
+    <t>11311311C</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>González</t>
+  </si>
+  <si>
+    <t>Martínez</t>
+  </si>
+  <si>
+    <t>11411411D</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Ruiz</t>
+  </si>
+  <si>
+    <t>Fernández</t>
+  </si>
+  <si>
+    <t>11511511E</t>
+  </si>
+  <si>
+    <t>Marta</t>
+  </si>
+  <si>
+    <t>Pérez</t>
+  </si>
+  <si>
+    <t>Sánchez</t>
+  </si>
+  <si>
+    <t>11611611F</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Díaz</t>
+  </si>
+  <si>
+    <t>11711711G</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Martín</t>
+  </si>
+  <si>
+    <t>Vázquez</t>
+  </si>
+  <si>
+    <t>11811811H</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>Hernández</t>
+  </si>
+  <si>
+    <t>Castro</t>
+  </si>
+  <si>
+    <t>11911911J</t>
+  </si>
+  <si>
+    <t>Elena</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>Bravo</t>
+  </si>
+  <si>
+    <t>12012012A</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>Caballero</t>
+  </si>
+  <si>
+    <t>12112112B</t>
+  </si>
+  <si>
+    <t>Rosa</t>
+  </si>
+  <si>
+    <t>Jiménez</t>
+  </si>
+  <si>
+    <t>Villar</t>
+  </si>
+  <si>
+    <t>12212212C</t>
+  </si>
+  <si>
+    <t>Calle falsa 124</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Calle falsa 125</t>
+  </si>
+  <si>
+    <t>Calle falsa 126</t>
+  </si>
+  <si>
+    <t>Calle falsa 127</t>
+  </si>
+  <si>
+    <t>Calle falsa 128</t>
+  </si>
+  <si>
+    <t>Calle falsa 129</t>
+  </si>
+  <si>
+    <t>Calle falsa 130</t>
+  </si>
+  <si>
+    <t>Calle falsa 131</t>
+  </si>
+  <si>
+    <t>Calle falsa 132</t>
+  </si>
+  <si>
+    <t>Calle falsa 133</t>
+  </si>
+  <si>
+    <t>Calle falsa 134</t>
+  </si>
+  <si>
+    <t>Torrent</t>
+  </si>
+  <si>
+    <t>País de la Direccion</t>
+  </si>
+  <si>
+    <t>Nacionalidad</t>
+  </si>
+  <si>
+    <t>Codigo de la Nacionalidad</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Bisabuelo/a</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>Bisnieto/a</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>Cuñado/a</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Padre o madre</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>Suegro/a</t>
+  </si>
+  <si>
+    <t>Yerno o nuera</t>
   </si>
 </sst>
 </file>
@@ -633,7 +840,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -651,14 +858,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -794,11 +993,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -839,13 +1037,15 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1184,7 +1384,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="O1" dT="2025-03-23T21:30:33.88" personId="{8A137443-92E4-45AD-BFFC-3F16839F9AD6}" id="{13CFBEF0-34DE-4488-8354-4E47D0E995E3}">
+  <threadedComment ref="R1" dT="2025-03-23T21:30:33.88" personId="{8A137443-92E4-45AD-BFFC-3F16839F9AD6}" id="{13CFBEF0-34DE-4488-8354-4E47D0E995E3}">
     <text>Solo si hay parientes en un grupo no hace falta especificar de quien solo es posible especificar una relacion, importante si hay menores de edad</text>
   </threadedComment>
 </ThreadedComments>
@@ -1192,10 +1392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17676F3E-BBA5-4FF3-AAD8-13C6DEB73BA9}">
-  <dimension ref="A1:W76"/>
+  <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,24 +1406,24 @@
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" customWidth="1"/>
-    <col min="17" max="17" width="19.7109375" customWidth="1"/>
-    <col min="19" max="19" width="19.42578125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="8.85546875" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="0" hidden="1" customWidth="1"/>
-    <col min="22" max="23" width="11" hidden="1" customWidth="1"/>
+    <col min="7" max="9" width="37.140625" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="15" max="15" width="34.42578125" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" customWidth="1"/>
+    <col min="20" max="20" width="19.7109375" customWidth="1"/>
+    <col min="22" max="22" width="19.42578125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="24" max="26" width="11" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1240,442 +1440,865 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="Y1" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="12">
+        <v>35960</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="8" t="str">
+        <f>IF(H2="", "", VLOOKUP(H2, $Y$2:$Z$76, 2, FALSE))</f>
+        <v>MEX</v>
+      </c>
+      <c r="J2" s="13">
+        <v>123465780</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="8" t="str">
+        <f>IF(K2="", "", VLOOKUP(K2, $Y$2:$Z$76, 2, FALSE))</f>
+        <v>ESP</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="O2" s="9">
+        <v>46112</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>46112</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="S2" s="11" t="str">
+        <f>IF(R2="","",VLOOKUP(R2,$V$2:$W$16,2,FALSE))</f>
+        <v>BA</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="12">
+        <v>35024</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="8" t="str">
+        <f t="shared" ref="I3:I66" si="0">IF(H3="", "", VLOOKUP(H3, $Y$2:$Z$76, 2, FALSE))</f>
+        <v>ESP</v>
+      </c>
+      <c r="J3" s="13">
+        <v>123465780</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="8" t="str">
+        <f t="shared" ref="L3:L66" si="1">IF(K3="", "", VLOOKUP(K3, $Y$2:$Z$76, 2, FALSE))</f>
+        <v>ESP</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="O3" s="9">
+        <v>46112</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>46112</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="S3" s="11" t="str">
+        <f t="shared" ref="S3:S66" si="2">IF(R3="","",VLOOKUP(R3,$V$2:$W$16,2,FALSE))</f>
+        <v>PM</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="W3" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="4" t="s">
+      <c r="Z3" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="12">
+        <v>35529</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>ESP</v>
+      </c>
+      <c r="J4" s="13">
+        <v>123465780</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>ESP</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="O4" s="9">
+        <v>46112</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>46112</v>
+      </c>
+      <c r="R4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="S1" s="6" t="s">
+      <c r="S4" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>HJ</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="W4" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="12">
+        <v>36196</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>ESP</v>
+      </c>
+      <c r="J5" s="13">
+        <v>123465780</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>ESP</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="O5" s="9">
+        <v>46112</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>46112</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>NI</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="W5" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="12">
+        <v>35626</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>ESP</v>
+      </c>
+      <c r="J6" s="13">
+        <v>123465780</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>ESP</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="O6" s="9">
+        <v>46112</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>46112</v>
+      </c>
+      <c r="R6" s="9"/>
+      <c r="S6" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="W6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="12">
+        <v>35146</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>ESP</v>
+      </c>
+      <c r="J7" s="13">
+        <v>123465780</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>ESP</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="O7" s="9">
+        <v>46112</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>46112</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>SB</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="8" t="str">
-        <f>IF(I2="", "", VLOOKUP(I2, $V$2:$W$76, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="11" t="str">
-        <f>IF(O2="","",VLOOKUP(O2,$S$2:$T$11,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" s="7" t="s">
+      <c r="Y7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z7" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="12">
+        <v>35063</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>ESP</v>
+      </c>
+      <c r="J8" s="13">
+        <v>123465780</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>ESP</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="O8" s="9">
+        <v>46112</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>46112</v>
+      </c>
+      <c r="R8" s="9"/>
+      <c r="S8" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="V2" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="8" t="str">
-        <f t="shared" ref="J3:J66" si="0">IF(I3="", "", VLOOKUP(I3, $V$2:$W$76, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="11" t="str">
-        <f t="shared" ref="P3:P66" si="1">IF(O3="","",VLOOKUP(O3,$S$2:$T$11,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="S3" s="7" t="s">
+      <c r="W8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="T4" s="7" t="s">
+      <c r="Y8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z8" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="12">
+        <v>36048</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>ESP</v>
+      </c>
+      <c r="J9" s="13">
+        <v>123465780</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>ESP</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="O9" s="9">
+        <v>46112</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>46112</v>
+      </c>
+      <c r="R9" s="9"/>
+      <c r="S9" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S5" s="7" t="s">
+      <c r="W9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="Y9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z9" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" s="12">
+        <v>35082</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>ESP</v>
+      </c>
+      <c r="J10" s="13">
+        <v>123465780</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>ESP</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="O10" s="9">
+        <v>46112</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>46112</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="S10" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>SG</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="W10" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z10" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="12">
+        <v>35728</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>ESP</v>
+      </c>
+      <c r="J11" s="13">
+        <v>123465780</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>ESP</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="O11" s="9">
+        <v>46112</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>46112</v>
+      </c>
+      <c r="R11" s="9"/>
+      <c r="S11" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="V5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S6" s="7" t="s">
+      <c r="W11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="W6" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="V7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="W7" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="V8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="W8" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="V9" s="7" t="s">
+      <c r="Y11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="W9" s="7" t="s">
+      <c r="Z11" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="V10" s="7" t="s">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" s="12">
+        <v>36231</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>ESP</v>
+      </c>
+      <c r="J12" s="13">
+        <v>123465780</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>ESP</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="O12" s="9">
+        <v>46112</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>46112</v>
+      </c>
+      <c r="R12" s="9"/>
+      <c r="S12" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="W12" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="W10" s="7" t="s">
+      <c r="Z12" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="V11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="W11" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V12" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="W12" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1683,29 +2306,41 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
+      <c r="L13" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
-      <c r="P13" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="11" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="V13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="W13" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="W13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z13" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1713,29 +2348,41 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
+      <c r="L14" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
-      <c r="P14" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="11" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="V14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="W14" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="W14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z14" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1743,29 +2390,41 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
+      <c r="L15" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
-      <c r="P15" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="11" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="V15" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="W15" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="W15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z15" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1773,29 +2432,41 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
+      <c r="L16" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
-      <c r="P16" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="11" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="V16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="W16" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="W16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z16" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1803,29 +2474,35 @@
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J17" s="9"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
+      <c r="L17" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
-      <c r="P17" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="W17" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z17" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1833,29 +2510,35 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J18" s="9"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
+      <c r="L18" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
-      <c r="P18" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V18" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="W18" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z18" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1863,29 +2546,35 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J19" s="9"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
+      <c r="L19" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
-      <c r="P19" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="W19" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z19" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1893,29 +2582,35 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
+      <c r="L20" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
-      <c r="P20" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W20" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z20" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1923,29 +2618,35 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
+      <c r="L21" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
-      <c r="P21" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V21" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="W21" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z21" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -1953,29 +2654,35 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J22" s="9"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
+      <c r="L22" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
-      <c r="P22" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V22" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="W22" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z22" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1983,29 +2690,35 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J23" s="9"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
+      <c r="L23" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
-      <c r="P23" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V23" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="W23" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z23" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -2013,29 +2726,35 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J24" s="9"/>
       <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
+      <c r="L24" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
-      <c r="P24" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V24" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="W24" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z24" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -2043,29 +2762,35 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J25" s="9"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
+      <c r="L25" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
-      <c r="P25" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V25" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="W25" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z25" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -2073,29 +2798,35 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J26" s="9"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
+      <c r="L26" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
-      <c r="P26" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V26" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="W26" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z26" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -2103,29 +2834,35 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J27" s="9"/>
       <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
+      <c r="L27" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
-      <c r="P27" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V27" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="W27" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y27" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z27" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -2133,29 +2870,35 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J28" s="9"/>
       <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
+      <c r="L28" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
-      <c r="P28" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V28" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="W28" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y28" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z28" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -2163,29 +2906,35 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H29" s="9"/>
+      <c r="I29" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J29" s="9"/>
       <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
+      <c r="L29" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
-      <c r="P29" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V29" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="W29" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y29" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z29" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -2193,29 +2942,35 @@
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H30" s="9"/>
+      <c r="I30" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J30" s="9"/>
       <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
+      <c r="L30" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
-      <c r="P30" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V30" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="W30" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y30" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z30" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -2223,29 +2978,35 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H31" s="9"/>
+      <c r="I31" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J31" s="9"/>
       <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
+      <c r="L31" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
-      <c r="P31" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V31" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="W31" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y31" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z31" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -2253,29 +3014,35 @@
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J32" s="9"/>
       <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
+      <c r="L32" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
-      <c r="P32" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V32" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="W32" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y32" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z32" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -2283,29 +3050,35 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H33" s="9"/>
+      <c r="I33" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J33" s="9"/>
       <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
+      <c r="L33" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
-      <c r="P33" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V33" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="W33" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y33" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z33" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -2313,29 +3086,35 @@
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H34" s="9"/>
+      <c r="I34" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J34" s="9"/>
       <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
+      <c r="L34" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
-      <c r="P34" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V34" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="W34" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z34" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -2343,29 +3122,35 @@
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H35" s="9"/>
+      <c r="I35" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J35" s="9"/>
       <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
+      <c r="L35" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
-      <c r="P35" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V35" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="W35" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y35" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z35" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -2373,29 +3158,35 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H36" s="9"/>
+      <c r="I36" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J36" s="9"/>
       <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
+      <c r="L36" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
-      <c r="P36" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V36" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="W36" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y36" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z36" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -2403,29 +3194,35 @@
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H37" s="9"/>
+      <c r="I37" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J37" s="9"/>
       <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
+      <c r="L37" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
-      <c r="P37" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V37" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="W37" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y37" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z37" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -2433,29 +3230,35 @@
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H38" s="9"/>
+      <c r="I38" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J38" s="9"/>
       <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
+      <c r="L38" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
-      <c r="P38" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V38" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="W38" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y38" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z38" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -2463,29 +3266,35 @@
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H39" s="9"/>
+      <c r="I39" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J39" s="9"/>
       <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
+      <c r="L39" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
-      <c r="P39" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V39" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="W39" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y39" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z39" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -2493,29 +3302,35 @@
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H40" s="9"/>
+      <c r="I40" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J40" s="9"/>
       <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
+      <c r="L40" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
-      <c r="P40" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V40" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="W40" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y40" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z40" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -2523,29 +3338,35 @@
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H41" s="9"/>
+      <c r="I41" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J41" s="9"/>
       <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
+      <c r="L41" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
-      <c r="P41" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V41" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="W41" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y41" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z41" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -2553,29 +3374,35 @@
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H42" s="9"/>
+      <c r="I42" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J42" s="9"/>
       <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
+      <c r="L42" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
-      <c r="P42" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V42" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="W42" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y42" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z42" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -2583,29 +3410,35 @@
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H43" s="9"/>
+      <c r="I43" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J43" s="9"/>
       <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
+      <c r="L43" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
-      <c r="P43" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V43" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="W43" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y43" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z43" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -2613,29 +3446,35 @@
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H44" s="9"/>
+      <c r="I44" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J44" s="9"/>
       <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
+      <c r="L44" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
-      <c r="P44" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V44" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="W44" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y44" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z44" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -2643,29 +3482,35 @@
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H45" s="9"/>
+      <c r="I45" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J45" s="9"/>
       <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
+      <c r="L45" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
-      <c r="P45" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V45" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="W45" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y45" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z45" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -2673,29 +3518,35 @@
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H46" s="9"/>
+      <c r="I46" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J46" s="9"/>
       <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
+      <c r="L46" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
-      <c r="P46" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V46" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="W46" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y46" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z46" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -2703,29 +3554,35 @@
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H47" s="9"/>
+      <c r="I47" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J47" s="9"/>
       <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
+      <c r="L47" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
-      <c r="P47" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V47" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="W47" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y47" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z47" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -2733,29 +3590,35 @@
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H48" s="9"/>
+      <c r="I48" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J48" s="9"/>
       <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
+      <c r="L48" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
-      <c r="P48" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V48" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="W48" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y48" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z48" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -2763,29 +3626,35 @@
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H49" s="9"/>
+      <c r="I49" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J49" s="9"/>
       <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
+      <c r="L49" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
-      <c r="P49" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V49" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="W49" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y49" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z49" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -2793,29 +3662,35 @@
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H50" s="9"/>
+      <c r="I50" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J50" s="9"/>
       <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
+      <c r="L50" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
-      <c r="P50" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V50" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="W50" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y50" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z50" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -2823,29 +3698,35 @@
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H51" s="9"/>
+      <c r="I51" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J51" s="9"/>
       <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
+      <c r="L51" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
-      <c r="P51" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V51" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="W51" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y51" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z51" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -2853,29 +3734,35 @@
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H52" s="9"/>
+      <c r="I52" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J52" s="9"/>
       <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
+      <c r="L52" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
       <c r="O52" s="9"/>
-      <c r="P52" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V52" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="W52" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y52" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z52" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -2883,29 +3770,35 @@
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H53" s="9"/>
+      <c r="I53" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J53" s="9"/>
       <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
+      <c r="L53" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
       <c r="O53" s="9"/>
-      <c r="P53" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V53" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="W53" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y53" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z53" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -2913,29 +3806,35 @@
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H54" s="9"/>
+      <c r="I54" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J54" s="9"/>
       <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
+      <c r="L54" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
       <c r="O54" s="9"/>
-      <c r="P54" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V54" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="W54" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y54" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z54" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -2943,29 +3842,35 @@
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H55" s="9"/>
+      <c r="I55" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J55" s="9"/>
       <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
+      <c r="L55" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
       <c r="O55" s="9"/>
-      <c r="P55" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V55" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="W55" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y55" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z55" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -2973,29 +3878,35 @@
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H56" s="9"/>
+      <c r="I56" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J56" s="9"/>
       <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
+      <c r="L56" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
       <c r="O56" s="9"/>
-      <c r="P56" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V56" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="W56" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y56" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z56" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -3003,29 +3914,35 @@
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H57" s="9"/>
+      <c r="I57" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J57" s="9"/>
       <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
+      <c r="L57" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
-      <c r="P57" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V57" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="W57" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y57" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z57" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -3033,29 +3950,35 @@
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H58" s="9"/>
+      <c r="I58" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J58" s="9"/>
       <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
+      <c r="L58" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
-      <c r="P58" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V58" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="W58" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y58" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z58" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -3063,29 +3986,35 @@
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H59" s="9"/>
+      <c r="I59" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J59" s="9"/>
       <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
+      <c r="L59" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
       <c r="O59" s="9"/>
-      <c r="P59" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V59" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="W59" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y59" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z59" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -3093,29 +4022,35 @@
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H60" s="9"/>
+      <c r="I60" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J60" s="9"/>
       <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
+      <c r="L60" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
-      <c r="P60" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V60" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="W60" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y60" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z60" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -3123,29 +4058,35 @@
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H61" s="9"/>
+      <c r="I61" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J61" s="9"/>
       <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
+      <c r="L61" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
       <c r="O61" s="9"/>
-      <c r="P61" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V61" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="W61" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y61" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z61" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -3153,29 +4094,35 @@
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H62" s="9"/>
+      <c r="I62" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J62" s="9"/>
       <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
+      <c r="L62" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
       <c r="O62" s="9"/>
-      <c r="P62" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V62" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="W62" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y62" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z62" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -3183,29 +4130,35 @@
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H63" s="9"/>
+      <c r="I63" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J63" s="9"/>
       <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
+      <c r="L63" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
       <c r="O63" s="9"/>
-      <c r="P63" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V63" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="W63" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y63" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z63" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -3213,29 +4166,35 @@
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H64" s="9"/>
+      <c r="I64" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J64" s="9"/>
       <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
+      <c r="L64" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
       <c r="O64" s="9"/>
-      <c r="P64" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V64" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="W64" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y64" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z64" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -3243,29 +4202,35 @@
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H65" s="9"/>
+      <c r="I65" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J65" s="9"/>
       <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
+      <c r="L65" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
       <c r="O65" s="9"/>
-      <c r="P65" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V65" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="W65" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y65" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z65" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -3273,29 +4238,35 @@
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H66" s="9"/>
+      <c r="I66" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J66" s="9"/>
       <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
+      <c r="L66" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
       <c r="O66" s="9"/>
-      <c r="P66" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V66" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="W66" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y66" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z66" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -3303,29 +4274,35 @@
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="8" t="str">
-        <f t="shared" ref="J67:J72" si="2">IF(I67="", "", VLOOKUP(I67, $V$2:$W$76, 2, FALSE))</f>
-        <v/>
-      </c>
+      <c r="H67" s="9"/>
+      <c r="I67" s="8" t="str">
+        <f t="shared" ref="I67:I72" si="3">IF(H67="", "", VLOOKUP(H67, $Y$2:$Z$76, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J67" s="9"/>
       <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
+      <c r="L67" s="8" t="str">
+        <f t="shared" ref="L67:L72" si="4">IF(K67="", "", VLOOKUP(K67, $Y$2:$Z$76, 2, FALSE))</f>
+        <v/>
+      </c>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
       <c r="O67" s="9"/>
-      <c r="P67" s="11" t="str">
-        <f t="shared" ref="P67:P72" si="3">IF(O67="","",VLOOKUP(O67,$S$2:$T$11,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="V67" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="W67" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="11" t="str">
+        <f t="shared" ref="S67:S72" si="5">IF(R67="","",VLOOKUP(R67,$V$2:$W$16,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="Y67" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z67" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -3333,29 +4310,35 @@
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H68" s="9"/>
+      <c r="I68" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J68" s="9"/>
       <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
+      <c r="L68" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
       <c r="O68" s="9"/>
-      <c r="P68" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="V68" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="W68" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y68" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z68" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -3363,29 +4346,35 @@
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H69" s="9"/>
+      <c r="I69" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J69" s="9"/>
       <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
+      <c r="L69" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
       <c r="O69" s="9"/>
-      <c r="P69" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="V69" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="W69" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y69" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z69" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -3393,29 +4382,35 @@
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H70" s="9"/>
+      <c r="I70" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J70" s="9"/>
       <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
+      <c r="L70" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
       <c r="O70" s="9"/>
-      <c r="P70" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="V70" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="W70" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y70" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z70" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -3423,29 +4418,35 @@
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H71" s="9"/>
+      <c r="I71" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J71" s="9"/>
       <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
+      <c r="L71" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
       <c r="O71" s="9"/>
-      <c r="P71" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="V71" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="W71" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y71" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z71" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -3453,62 +4454,68 @@
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H72" s="9"/>
+      <c r="I72" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J72" s="9"/>
       <c r="K72" s="9"/>
-      <c r="L72" s="9"/>
+      <c r="L72" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
       <c r="O72" s="9"/>
-      <c r="P72" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="V72" s="7" t="s">
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y72" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z72" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y73" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z73" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y74" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="W72" s="7" t="s">
+      <c r="Z74" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="V73" s="7" t="s">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y75" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="W73" s="7" t="s">
+      <c r="Z75" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="V74" s="7" t="s">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y76" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="W74" s="7" t="s">
+      <c r="Z76" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="V75" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="W75" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="V76" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="W76" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZQPCVMW/EWoTr+bzW8duMHhipsZjRVbIUmbzq1ev0ZiEiqZ1DiQJTTgfcfu1qwUaGqLPKfAQBeKo10c0Qsi/Zw==" saltValue="EAPt0ltAeKWM2o+UfYMbFQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="5">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D72" xr:uid="{5BEAB45D-33D4-49C6-8606-5A33F0D469D5}">
@@ -3517,14 +4524,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E72" xr:uid="{9E33A6AE-3F07-48DB-8456-C9918BB8D008}">
       <formula1>"DNI,Pasaporte,NIE,Otro"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O72" xr:uid="{E096BC91-72F8-4C57-BEF9-96515148A80F}">
-      <formula1>$S$2:$S$11</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K72 H2:H72" xr:uid="{C014FB89-F271-4428-B384-39ED942FD491}">
+      <formula1>$Y$2:$Y$76</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I72" xr:uid="{C014FB89-F271-4428-B384-39ED942FD491}">
-      <formula1>$V$2:$V$76</formula1>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L72 Q2:Q72 I2:I72" xr:uid="{8867B711-A3FD-4768-B012-E84B18B45EA8}">
+      <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J72 N2:N72" xr:uid="{8867B711-A3FD-4768-B012-E84B18B45EA8}">
-      <formula1>0</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R72" xr:uid="{543537E7-E1C7-4FB0-8442-B2BF84B253A1}">
+      <formula1>$V$2:$V$16</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DatosViajeros.xlsx
+++ b/DatosViajeros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DatosViajeros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477250C2-799C-4E27-84CA-EB1BDEDD5E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142C8FFA-FE43-4FB6-B375-E5FD2CF3E5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5DF11FD6-0A61-4C2B-9CEC-54DEE1359997}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t>Nombre</t>
   </si>
@@ -621,174 +621,6 @@
   </si>
   <si>
     <t>Código del Municipio(Solo España)</t>
-  </si>
-  <si>
-    <t>Ana</t>
-  </si>
-  <si>
-    <t>López</t>
-  </si>
-  <si>
-    <t>García</t>
-  </si>
-  <si>
-    <t>DNI</t>
-  </si>
-  <si>
-    <t>11211211B</t>
-  </si>
-  <si>
-    <t>Carlos</t>
-  </si>
-  <si>
-    <t>Alvarez</t>
-  </si>
-  <si>
-    <t>Ramírez</t>
-  </si>
-  <si>
-    <t>11311311C</t>
-  </si>
-  <si>
-    <t>Laura</t>
-  </si>
-  <si>
-    <t>González</t>
-  </si>
-  <si>
-    <t>Martínez</t>
-  </si>
-  <si>
-    <t>11411411D</t>
-  </si>
-  <si>
-    <t>Pedro</t>
-  </si>
-  <si>
-    <t>Ruiz</t>
-  </si>
-  <si>
-    <t>Fernández</t>
-  </si>
-  <si>
-    <t>11511511E</t>
-  </si>
-  <si>
-    <t>Marta</t>
-  </si>
-  <si>
-    <t>Pérez</t>
-  </si>
-  <si>
-    <t>Sánchez</t>
-  </si>
-  <si>
-    <t>11611611F</t>
-  </si>
-  <si>
-    <t>Luis</t>
-  </si>
-  <si>
-    <t>Díaz</t>
-  </si>
-  <si>
-    <t>11711711G</t>
-  </si>
-  <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>Martín</t>
-  </si>
-  <si>
-    <t>Vázquez</t>
-  </si>
-  <si>
-    <t>11811811H</t>
-  </si>
-  <si>
-    <t>Javier</t>
-  </si>
-  <si>
-    <t>Hernández</t>
-  </si>
-  <si>
-    <t>Castro</t>
-  </si>
-  <si>
-    <t>11911911J</t>
-  </si>
-  <si>
-    <t>Elena</t>
-  </si>
-  <si>
-    <t>Lopez</t>
-  </si>
-  <si>
-    <t>Bravo</t>
-  </si>
-  <si>
-    <t>12012012A</t>
-  </si>
-  <si>
-    <t>Oscar</t>
-  </si>
-  <si>
-    <t>Caballero</t>
-  </si>
-  <si>
-    <t>12112112B</t>
-  </si>
-  <si>
-    <t>Rosa</t>
-  </si>
-  <si>
-    <t>Jiménez</t>
-  </si>
-  <si>
-    <t>Villar</t>
-  </si>
-  <si>
-    <t>12212212C</t>
-  </si>
-  <si>
-    <t>Calle falsa 124</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Calle falsa 125</t>
-  </si>
-  <si>
-    <t>Calle falsa 126</t>
-  </si>
-  <si>
-    <t>Calle falsa 127</t>
-  </si>
-  <si>
-    <t>Calle falsa 128</t>
-  </si>
-  <si>
-    <t>Calle falsa 129</t>
-  </si>
-  <si>
-    <t>Calle falsa 130</t>
-  </si>
-  <si>
-    <t>Calle falsa 131</t>
-  </si>
-  <si>
-    <t>Calle falsa 132</t>
-  </si>
-  <si>
-    <t>Calle falsa 133</t>
-  </si>
-  <si>
-    <t>Calle falsa 134</t>
-  </si>
-  <si>
-    <t>Torrent</t>
   </si>
   <si>
     <t>País de la Direccion</t>
@@ -1394,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17676F3E-BBA5-4FF3-AAD8-13C6DEB73BA9}">
   <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:Z1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,16 +1278,16 @@
         <v>187</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>246</v>
+        <v>190</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>247</v>
+        <v>191</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>245</v>
+        <v>189</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>32</v>
@@ -1495,65 +1327,33 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="D2" s="12">
-        <v>35960</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>40</v>
-      </c>
+      <c r="A2" s="10"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
       <c r="I2" s="8" t="str">
         <f>IF(H2="", "", VLOOKUP(H2, $Y$2:$Z$76, 2, FALSE))</f>
-        <v>MEX</v>
-      </c>
-      <c r="J2" s="13">
-        <v>123465780</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>35</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="9"/>
       <c r="L2" s="8" t="str">
         <f>IF(K2="", "", VLOOKUP(K2, $Y$2:$Z$76, 2, FALSE))</f>
-        <v>ESP</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="O2" s="9">
-        <v>46112</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>46112</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>249</v>
-      </c>
+        <v/>
+      </c>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
       <c r="S2" s="11" t="str">
         <f>IF(R2="","",VLOOKUP(R2,$V$2:$W$16,2,FALSE))</f>
-        <v>BA</v>
+        <v/>
       </c>
       <c r="V2" s="7" t="s">
         <v>19</v>
@@ -1569,71 +1369,39 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D3" s="12">
-        <v>35024</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="A3" s="10"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="8" t="str">
         <f t="shared" ref="I3:I66" si="0">IF(H3="", "", VLOOKUP(H3, $Y$2:$Z$76, 2, FALSE))</f>
-        <v>ESP</v>
-      </c>
-      <c r="J3" s="13">
-        <v>123465780</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>35</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="9"/>
       <c r="L3" s="8" t="str">
         <f t="shared" ref="L3:L66" si="1">IF(K3="", "", VLOOKUP(K3, $Y$2:$Z$76, 2, FALSE))</f>
-        <v>ESP</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="O3" s="9">
-        <v>46112</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>46112</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>255</v>
-      </c>
+        <v/>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
       <c r="S3" s="11" t="str">
         <f t="shared" ref="S3:S66" si="2">IF(R3="","",VLOOKUP(R3,$V$2:$W$16,2,FALSE))</f>
-        <v>PM</v>
+        <v/>
       </c>
       <c r="V3" s="7" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="W3" s="14" t="s">
-        <v>248</v>
+        <v>192</v>
       </c>
       <c r="Y3" s="7" t="s">
         <v>36</v>
@@ -1643,71 +1411,39 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D4" s="12">
-        <v>35529</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="A4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>ESP</v>
-      </c>
-      <c r="J4" s="13">
-        <v>123465780</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>35</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="9"/>
       <c r="L4" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>ESP</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="O4" s="9">
-        <v>46112</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>46112</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
       <c r="S4" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>HJ</v>
+        <v/>
       </c>
       <c r="V4" s="7" t="s">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="W4" s="14" t="s">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="Y4" s="7" t="s">
         <v>38</v>
@@ -1717,71 +1453,39 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D5" s="12">
-        <v>36196</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="A5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>ESP</v>
-      </c>
-      <c r="J5" s="13">
-        <v>123465780</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>35</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="9"/>
       <c r="L5" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>ESP</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="O5" s="9">
-        <v>46112</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>46112</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>21</v>
-      </c>
+        <v/>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
       <c r="S5" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>NI</v>
+        <v/>
       </c>
       <c r="V5" s="7" t="s">
-        <v>253</v>
+        <v>197</v>
       </c>
       <c r="W5" s="14" t="s">
-        <v>252</v>
+        <v>196</v>
       </c>
       <c r="Y5" s="7" t="s">
         <v>40</v>
@@ -1791,59 +1495,29 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D6" s="12">
-        <v>35626</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="A6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>ESP</v>
-      </c>
-      <c r="J6" s="13">
-        <v>123465780</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>35</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="9"/>
       <c r="L6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>ESP</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="O6" s="9">
-        <v>46112</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>46112</v>
-      </c>
+        <v/>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
       <c r="S6" s="11" t="str">
         <f t="shared" si="2"/>
@@ -1863,65 +1537,33 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="D7" s="12">
-        <v>35146</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="A7" s="10"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>ESP</v>
-      </c>
-      <c r="J7" s="13">
-        <v>123465780</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>35</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="9"/>
       <c r="L7" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>ESP</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="O7" s="9">
-        <v>46112</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>46112</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>23</v>
-      </c>
+        <v/>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
       <c r="S7" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>SB</v>
+        <v/>
       </c>
       <c r="V7" s="7" t="s">
         <v>13</v>
@@ -1937,59 +1579,29 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D8" s="12">
-        <v>35063</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="A8" s="10"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>ESP</v>
-      </c>
-      <c r="J8" s="13">
-        <v>123465780</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>35</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>ESP</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="O8" s="9">
-        <v>46112</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>46112</v>
-      </c>
+        <v/>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
       <c r="S8" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2009,59 +1621,29 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="D9" s="12">
-        <v>36048</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="A9" s="10"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>ESP</v>
-      </c>
-      <c r="J9" s="13">
-        <v>123465780</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>35</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="9"/>
       <c r="L9" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>ESP</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="O9" s="9">
-        <v>46112</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>46112</v>
-      </c>
+        <v/>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2081,71 +1663,39 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="D10" s="12">
-        <v>35082</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="A10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>ESP</v>
-      </c>
-      <c r="J10" s="13">
-        <v>123465780</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>35</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="9"/>
       <c r="L10" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>ESP</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="O10" s="9">
-        <v>46112</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>46112</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>257</v>
-      </c>
+        <v/>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
       <c r="S10" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>SG</v>
+        <v/>
       </c>
       <c r="V10" s="7" t="s">
-        <v>255</v>
+        <v>199</v>
       </c>
       <c r="W10" s="14" t="s">
-        <v>254</v>
+        <v>198</v>
       </c>
       <c r="Y10" s="7" t="s">
         <v>50</v>
@@ -2155,59 +1705,29 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" s="12">
-        <v>35728</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="A11" s="10"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>ESP</v>
-      </c>
-      <c r="J11" s="13">
-        <v>123465780</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>35</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="9"/>
       <c r="L11" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>ESP</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="O11" s="9">
-        <v>46112</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>46112</v>
-      </c>
+        <v/>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
       <c r="S11" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2227,69 +1747,39 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="D12" s="12">
-        <v>36231</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="A12" s="10"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>ESP</v>
-      </c>
-      <c r="J12" s="13">
-        <v>123465780</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>35</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="9"/>
       <c r="L12" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>ESP</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="O12" s="9">
-        <v>46112</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>46112</v>
-      </c>
+        <v/>
+      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
       <c r="S12" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="V12" s="7" t="s">
-        <v>257</v>
+        <v>201</v>
       </c>
       <c r="W12" s="14" t="s">
-        <v>256</v>
+        <v>200</v>
       </c>
       <c r="Y12" s="7" t="s">
         <v>54</v>
@@ -2370,7 +1860,7 @@
         <v/>
       </c>
       <c r="V14" s="7" t="s">
-        <v>258</v>
+        <v>202</v>
       </c>
       <c r="W14" s="14" t="s">
         <v>27</v>
@@ -4515,7 +4005,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZY1v2iNw6EN8erJKl5JD74FZACoWRhR8Ympr13Nw7cALScIf7Sm/Yr79JGAGPrM5NyXYgKlV65WCTaIoIug92Q==" saltValue="RCP0O+0lwcpYaN5D1CiQLg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="5">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D72" xr:uid="{5BEAB45D-33D4-49C6-8606-5A33F0D469D5}">

--- a/DatosViajeros.xlsx
+++ b/DatosViajeros.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DatosViajeros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Desktop\AutoDatosViajeros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142C8FFA-FE43-4FB6-B375-E5FD2CF3E5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9119FFE-346A-4497-BFB7-51E613DAEA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5DF11FD6-0A61-4C2B-9CEC-54DEE1359997}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{5DF11FD6-0A61-4C2B-9CEC-54DEE1359997}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -828,7 +828,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -875,6 +875,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1227,7 +1231,7 @@
   <dimension ref="A1:Z76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:R12"/>
+      <selection activeCell="Q2" sqref="Q2:Q72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,9 +1351,9 @@
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
+      <c r="O2" s="15"/>
       <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
+      <c r="Q2" s="15"/>
       <c r="R2" s="9"/>
       <c r="S2" s="11" t="str">
         <f>IF(R2="","",VLOOKUP(R2,$V$2:$W$16,2,FALSE))</f>
@@ -1389,9 +1393,9 @@
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
+      <c r="O3" s="15"/>
       <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
+      <c r="Q3" s="15"/>
       <c r="R3" s="9"/>
       <c r="S3" s="11" t="str">
         <f t="shared" ref="S3:S66" si="2">IF(R3="","",VLOOKUP(R3,$V$2:$W$16,2,FALSE))</f>
@@ -1431,9 +1435,9 @@
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
+      <c r="O4" s="15"/>
       <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
+      <c r="Q4" s="15"/>
       <c r="R4" s="9"/>
       <c r="S4" s="11" t="str">
         <f t="shared" si="2"/>
@@ -1473,9 +1477,9 @@
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
+      <c r="O5" s="15"/>
       <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
+      <c r="Q5" s="15"/>
       <c r="R5" s="9"/>
       <c r="S5" s="11" t="str">
         <f t="shared" si="2"/>
@@ -1515,9 +1519,9 @@
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+      <c r="O6" s="15"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
+      <c r="Q6" s="15"/>
       <c r="R6" s="9"/>
       <c r="S6" s="11" t="str">
         <f t="shared" si="2"/>
@@ -1557,9 +1561,9 @@
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
+      <c r="O7" s="15"/>
       <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
+      <c r="Q7" s="15"/>
       <c r="R7" s="9"/>
       <c r="S7" s="11" t="str">
         <f t="shared" si="2"/>
@@ -1599,9 +1603,9 @@
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
+      <c r="O8" s="15"/>
       <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
+      <c r="Q8" s="15"/>
       <c r="R8" s="9"/>
       <c r="S8" s="11" t="str">
         <f t="shared" si="2"/>
@@ -1641,9 +1645,9 @@
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
+      <c r="O9" s="15"/>
       <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
+      <c r="Q9" s="15"/>
       <c r="R9" s="9"/>
       <c r="S9" s="11" t="str">
         <f t="shared" si="2"/>
@@ -1683,9 +1687,9 @@
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
+      <c r="O10" s="15"/>
       <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
+      <c r="Q10" s="15"/>
       <c r="R10" s="9"/>
       <c r="S10" s="11" t="str">
         <f t="shared" si="2"/>
@@ -1725,9 +1729,9 @@
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
+      <c r="O11" s="15"/>
       <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
+      <c r="Q11" s="15"/>
       <c r="R11" s="9"/>
       <c r="S11" s="11" t="str">
         <f t="shared" si="2"/>
@@ -1767,9 +1771,9 @@
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
+      <c r="O12" s="15"/>
       <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
+      <c r="Q12" s="15"/>
       <c r="R12" s="9"/>
       <c r="S12" s="11" t="str">
         <f t="shared" si="2"/>
@@ -1809,9 +1813,9 @@
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
+      <c r="O13" s="15"/>
       <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
+      <c r="Q13" s="15"/>
       <c r="R13" s="9"/>
       <c r="S13" s="11" t="str">
         <f t="shared" si="2"/>
@@ -1851,9 +1855,9 @@
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
+      <c r="O14" s="15"/>
       <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
+      <c r="Q14" s="15"/>
       <c r="R14" s="9"/>
       <c r="S14" s="11" t="str">
         <f t="shared" si="2"/>
@@ -1893,9 +1897,9 @@
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
+      <c r="O15" s="15"/>
       <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
+      <c r="Q15" s="15"/>
       <c r="R15" s="9"/>
       <c r="S15" s="11" t="str">
         <f t="shared" si="2"/>
@@ -1935,9 +1939,9 @@
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
+      <c r="O16" s="15"/>
       <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
+      <c r="Q16" s="15"/>
       <c r="R16" s="9"/>
       <c r="S16" s="11" t="str">
         <f t="shared" si="2"/>
@@ -1977,9 +1981,9 @@
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
+      <c r="O17" s="15"/>
       <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
+      <c r="Q17" s="15"/>
       <c r="R17" s="9"/>
       <c r="S17" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2013,9 +2017,9 @@
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
+      <c r="O18" s="15"/>
       <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
+      <c r="Q18" s="15"/>
       <c r="R18" s="9"/>
       <c r="S18" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2049,9 +2053,9 @@
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
+      <c r="O19" s="15"/>
       <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
+      <c r="Q19" s="15"/>
       <c r="R19" s="9"/>
       <c r="S19" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2085,9 +2089,9 @@
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
+      <c r="O20" s="15"/>
       <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
+      <c r="Q20" s="15"/>
       <c r="R20" s="9"/>
       <c r="S20" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2121,9 +2125,9 @@
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
+      <c r="O21" s="15"/>
       <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
+      <c r="Q21" s="15"/>
       <c r="R21" s="9"/>
       <c r="S21" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2157,9 +2161,9 @@
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
+      <c r="O22" s="15"/>
       <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
+      <c r="Q22" s="15"/>
       <c r="R22" s="9"/>
       <c r="S22" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2193,9 +2197,9 @@
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
+      <c r="O23" s="15"/>
       <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
+      <c r="Q23" s="15"/>
       <c r="R23" s="9"/>
       <c r="S23" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2229,9 +2233,9 @@
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
+      <c r="O24" s="15"/>
       <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
+      <c r="Q24" s="15"/>
       <c r="R24" s="9"/>
       <c r="S24" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2265,9 +2269,9 @@
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
+      <c r="O25" s="15"/>
       <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
+      <c r="Q25" s="15"/>
       <c r="R25" s="9"/>
       <c r="S25" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2301,9 +2305,9 @@
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
+      <c r="O26" s="15"/>
       <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
+      <c r="Q26" s="15"/>
       <c r="R26" s="9"/>
       <c r="S26" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2337,9 +2341,9 @@
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
+      <c r="O27" s="15"/>
       <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
+      <c r="Q27" s="15"/>
       <c r="R27" s="9"/>
       <c r="S27" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2373,9 +2377,9 @@
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
+      <c r="O28" s="15"/>
       <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
+      <c r="Q28" s="15"/>
       <c r="R28" s="9"/>
       <c r="S28" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2409,9 +2413,9 @@
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
+      <c r="O29" s="15"/>
       <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
+      <c r="Q29" s="15"/>
       <c r="R29" s="9"/>
       <c r="S29" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2445,9 +2449,9 @@
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
+      <c r="O30" s="15"/>
       <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
+      <c r="Q30" s="15"/>
       <c r="R30" s="9"/>
       <c r="S30" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2481,9 +2485,9 @@
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
+      <c r="O31" s="15"/>
       <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
+      <c r="Q31" s="15"/>
       <c r="R31" s="9"/>
       <c r="S31" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2517,9 +2521,9 @@
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
+      <c r="O32" s="15"/>
       <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
+      <c r="Q32" s="15"/>
       <c r="R32" s="9"/>
       <c r="S32" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2553,9 +2557,9 @@
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
+      <c r="O33" s="15"/>
       <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
+      <c r="Q33" s="15"/>
       <c r="R33" s="9"/>
       <c r="S33" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2589,9 +2593,9 @@
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
+      <c r="O34" s="15"/>
       <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
+      <c r="Q34" s="15"/>
       <c r="R34" s="9"/>
       <c r="S34" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2625,9 +2629,9 @@
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
+      <c r="O35" s="15"/>
       <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
+      <c r="Q35" s="15"/>
       <c r="R35" s="9"/>
       <c r="S35" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2661,9 +2665,9 @@
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
+      <c r="O36" s="15"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
+      <c r="Q36" s="15"/>
       <c r="R36" s="9"/>
       <c r="S36" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2697,9 +2701,9 @@
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
+      <c r="O37" s="15"/>
       <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
+      <c r="Q37" s="15"/>
       <c r="R37" s="9"/>
       <c r="S37" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2733,9 +2737,9 @@
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
+      <c r="O38" s="15"/>
       <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
+      <c r="Q38" s="15"/>
       <c r="R38" s="9"/>
       <c r="S38" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2769,9 +2773,9 @@
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
+      <c r="O39" s="15"/>
       <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
+      <c r="Q39" s="15"/>
       <c r="R39" s="9"/>
       <c r="S39" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2805,9 +2809,9 @@
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
+      <c r="O40" s="15"/>
       <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
+      <c r="Q40" s="15"/>
       <c r="R40" s="9"/>
       <c r="S40" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2841,9 +2845,9 @@
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
+      <c r="O41" s="15"/>
       <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
+      <c r="Q41" s="15"/>
       <c r="R41" s="9"/>
       <c r="S41" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2877,9 +2881,9 @@
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
+      <c r="O42" s="15"/>
       <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
+      <c r="Q42" s="15"/>
       <c r="R42" s="9"/>
       <c r="S42" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2913,9 +2917,9 @@
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
+      <c r="O43" s="15"/>
       <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
+      <c r="Q43" s="15"/>
       <c r="R43" s="9"/>
       <c r="S43" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2949,9 +2953,9 @@
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
+      <c r="O44" s="15"/>
       <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
+      <c r="Q44" s="15"/>
       <c r="R44" s="9"/>
       <c r="S44" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2985,9 +2989,9 @@
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
+      <c r="O45" s="15"/>
       <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
+      <c r="Q45" s="15"/>
       <c r="R45" s="9"/>
       <c r="S45" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3021,9 +3025,9 @@
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
+      <c r="O46" s="15"/>
       <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
+      <c r="Q46" s="15"/>
       <c r="R46" s="9"/>
       <c r="S46" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3057,9 +3061,9 @@
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
+      <c r="O47" s="15"/>
       <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
+      <c r="Q47" s="15"/>
       <c r="R47" s="9"/>
       <c r="S47" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3093,9 +3097,9 @@
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
+      <c r="O48" s="15"/>
       <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
+      <c r="Q48" s="15"/>
       <c r="R48" s="9"/>
       <c r="S48" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3129,9 +3133,9 @@
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
+      <c r="O49" s="15"/>
       <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
+      <c r="Q49" s="15"/>
       <c r="R49" s="9"/>
       <c r="S49" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3165,9 +3169,9 @@
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
+      <c r="O50" s="15"/>
       <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
+      <c r="Q50" s="15"/>
       <c r="R50" s="9"/>
       <c r="S50" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3201,9 +3205,9 @@
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
+      <c r="O51" s="15"/>
       <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
+      <c r="Q51" s="15"/>
       <c r="R51" s="9"/>
       <c r="S51" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3237,9 +3241,9 @@
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
+      <c r="O52" s="15"/>
       <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
+      <c r="Q52" s="15"/>
       <c r="R52" s="9"/>
       <c r="S52" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3273,9 +3277,9 @@
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
+      <c r="O53" s="15"/>
       <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
+      <c r="Q53" s="15"/>
       <c r="R53" s="9"/>
       <c r="S53" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3309,9 +3313,9 @@
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
+      <c r="O54" s="15"/>
       <c r="P54" s="9"/>
-      <c r="Q54" s="9"/>
+      <c r="Q54" s="15"/>
       <c r="R54" s="9"/>
       <c r="S54" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3345,9 +3349,9 @@
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
+      <c r="O55" s="15"/>
       <c r="P55" s="9"/>
-      <c r="Q55" s="9"/>
+      <c r="Q55" s="15"/>
       <c r="R55" s="9"/>
       <c r="S55" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3381,9 +3385,9 @@
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
+      <c r="O56" s="15"/>
       <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
+      <c r="Q56" s="15"/>
       <c r="R56" s="9"/>
       <c r="S56" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3417,9 +3421,9 @@
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
+      <c r="O57" s="15"/>
       <c r="P57" s="9"/>
-      <c r="Q57" s="9"/>
+      <c r="Q57" s="15"/>
       <c r="R57" s="9"/>
       <c r="S57" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3453,9 +3457,9 @@
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
-      <c r="O58" s="9"/>
+      <c r="O58" s="15"/>
       <c r="P58" s="9"/>
-      <c r="Q58" s="9"/>
+      <c r="Q58" s="15"/>
       <c r="R58" s="9"/>
       <c r="S58" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3489,9 +3493,9 @@
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
+      <c r="O59" s="15"/>
       <c r="P59" s="9"/>
-      <c r="Q59" s="9"/>
+      <c r="Q59" s="15"/>
       <c r="R59" s="9"/>
       <c r="S59" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3525,9 +3529,9 @@
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
-      <c r="O60" s="9"/>
+      <c r="O60" s="15"/>
       <c r="P60" s="9"/>
-      <c r="Q60" s="9"/>
+      <c r="Q60" s="15"/>
       <c r="R60" s="9"/>
       <c r="S60" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3561,9 +3565,9 @@
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
+      <c r="O61" s="15"/>
       <c r="P61" s="9"/>
-      <c r="Q61" s="9"/>
+      <c r="Q61" s="15"/>
       <c r="R61" s="9"/>
       <c r="S61" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3597,9 +3601,9 @@
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
-      <c r="O62" s="9"/>
+      <c r="O62" s="15"/>
       <c r="P62" s="9"/>
-      <c r="Q62" s="9"/>
+      <c r="Q62" s="15"/>
       <c r="R62" s="9"/>
       <c r="S62" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3633,9 +3637,9 @@
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
-      <c r="O63" s="9"/>
+      <c r="O63" s="15"/>
       <c r="P63" s="9"/>
-      <c r="Q63" s="9"/>
+      <c r="Q63" s="15"/>
       <c r="R63" s="9"/>
       <c r="S63" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3669,9 +3673,9 @@
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
-      <c r="O64" s="9"/>
+      <c r="O64" s="15"/>
       <c r="P64" s="9"/>
-      <c r="Q64" s="9"/>
+      <c r="Q64" s="15"/>
       <c r="R64" s="9"/>
       <c r="S64" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3705,9 +3709,9 @@
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
+      <c r="O65" s="15"/>
       <c r="P65" s="9"/>
-      <c r="Q65" s="9"/>
+      <c r="Q65" s="15"/>
       <c r="R65" s="9"/>
       <c r="S65" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3741,9 +3745,9 @@
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
+      <c r="O66" s="15"/>
       <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
+      <c r="Q66" s="15"/>
       <c r="R66" s="9"/>
       <c r="S66" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3777,9 +3781,9 @@
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
-      <c r="O67" s="9"/>
+      <c r="O67" s="15"/>
       <c r="P67" s="9"/>
-      <c r="Q67" s="9"/>
+      <c r="Q67" s="15"/>
       <c r="R67" s="9"/>
       <c r="S67" s="11" t="str">
         <f t="shared" ref="S67:S72" si="5">IF(R67="","",VLOOKUP(R67,$V$2:$W$16,2,FALSE))</f>
@@ -3813,9 +3817,9 @@
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
-      <c r="O68" s="9"/>
+      <c r="O68" s="15"/>
       <c r="P68" s="9"/>
-      <c r="Q68" s="9"/>
+      <c r="Q68" s="15"/>
       <c r="R68" s="9"/>
       <c r="S68" s="11" t="str">
         <f t="shared" si="5"/>
@@ -3849,9 +3853,9 @@
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
+      <c r="O69" s="15"/>
       <c r="P69" s="9"/>
-      <c r="Q69" s="9"/>
+      <c r="Q69" s="15"/>
       <c r="R69" s="9"/>
       <c r="S69" s="11" t="str">
         <f t="shared" si="5"/>
@@ -3885,9 +3889,9 @@
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
-      <c r="O70" s="9"/>
+      <c r="O70" s="15"/>
       <c r="P70" s="9"/>
-      <c r="Q70" s="9"/>
+      <c r="Q70" s="15"/>
       <c r="R70" s="9"/>
       <c r="S70" s="11" t="str">
         <f t="shared" si="5"/>
@@ -3921,9 +3925,9 @@
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
+      <c r="O71" s="15"/>
       <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
+      <c r="Q71" s="15"/>
       <c r="R71" s="9"/>
       <c r="S71" s="11" t="str">
         <f t="shared" si="5"/>
@@ -3957,9 +3961,9 @@
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
-      <c r="O72" s="9"/>
+      <c r="O72" s="15"/>
       <c r="P72" s="9"/>
-      <c r="Q72" s="9"/>
+      <c r="Q72" s="15"/>
       <c r="R72" s="9"/>
       <c r="S72" s="11" t="str">
         <f t="shared" si="5"/>
@@ -4005,9 +4009,9 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZY1v2iNw6EN8erJKl5JD74FZACoWRhR8Ympr13Nw7cALScIf7Sm/Yr79JGAGPrM5NyXYgKlV65WCTaIoIug92Q==" saltValue="RCP0O+0lwcpYaN5D1CiQLg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TGBFdfQRD84aAquODr6X/GuXBODOwqhv4U3K2Uvv9+ADZO6ypDKmcQblWEMUE3dSvBgIWjByBL3ANTdRNSweJg==" saltValue="TWuJl29fYzgp4qERpbhy7g==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D72" xr:uid="{5BEAB45D-33D4-49C6-8606-5A33F0D469D5}">
       <formula1>1</formula1>
     </dataValidation>
@@ -4017,12 +4021,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K72 H2:H72" xr:uid="{C014FB89-F271-4428-B384-39ED942FD491}">
       <formula1>$Y$2:$Y$76</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L72 Q2:Q72 I2:I72" xr:uid="{8867B711-A3FD-4768-B012-E84B18B45EA8}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L72 I2:I72" xr:uid="{8867B711-A3FD-4768-B012-E84B18B45EA8}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R72" xr:uid="{543537E7-E1C7-4FB0-8442-B2BF84B253A1}">
       <formula1>$V$2:$V$16</formula1>
     </dataValidation>
+    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q72" xr:uid="{FA1CB028-F224-4E8B-90DF-BFAF3771305D}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
